--- a/Officetel_서울특별시_20181019.xlsx
+++ b/Officetel_서울특별시_20181019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="194">
   <si>
     <t>물건명</t>
   </si>
@@ -91,16 +91,19 @@
     <t>삼성동지웰 1동</t>
   </si>
   <si>
+    <t>삼성역두산위브센티움 1동</t>
+  </si>
+  <si>
+    <t>원일 1동</t>
+  </si>
+  <si>
+    <t>대종 1동</t>
+  </si>
+  <si>
     <t>LG트윈텔2 1동</t>
   </si>
   <si>
-    <t>원일 1동</t>
-  </si>
-  <si>
-    <t>삼성역두산위브센티움 1동</t>
-  </si>
-  <si>
-    <t>대종 1동</t>
+    <t>하남(아셈빌라텔) 1동</t>
   </si>
   <si>
     <t>-</t>
@@ -109,30 +112,51 @@
     <t>19년 02월이후 협의가능</t>
   </si>
   <si>
+    <t>즉시입주 협의가능</t>
+  </si>
+  <si>
     <t>즉시입주</t>
   </si>
   <si>
-    <t>즉시입주 협의가능</t>
-  </si>
-  <si>
     <t>3개월 이내</t>
   </si>
   <si>
+    <t>2개월 이내</t>
+  </si>
+  <si>
     <t>6개월 이내 협의가능</t>
   </si>
   <si>
-    <t>2개월 이내</t>
+    <t>19년 10월이후 협의가능</t>
+  </si>
+  <si>
+    <t>1개월 이내 협의가능</t>
+  </si>
+  <si>
+    <t>1개월 이내</t>
+  </si>
+  <si>
+    <t>2개월 이내 협의가능</t>
+  </si>
+  <si>
+    <t>20년 12월이후</t>
+  </si>
+  <si>
+    <t>18년 11월이후 협의가능</t>
+  </si>
+  <si>
+    <t>6개월 이내</t>
   </si>
   <si>
     <t>갭투자 7천 최저가입니다.</t>
   </si>
   <si>
+    <t>선릉역세권이며 공원옆 오피스텔임.</t>
+  </si>
+  <si>
     <t>급매입니다.</t>
   </si>
   <si>
-    <t>선릉역세권이며 공원옆 오피스텔임.</t>
-  </si>
-  <si>
     <t>19p 천지개벽개발호재 초역세권 수익성 굿</t>
   </si>
   <si>
@@ -151,22 +175,106 @@
     <t>평당가1500만원대 매물입니다.</t>
   </si>
   <si>
+    <t>아파트 구조, 실입주 가능</t>
+  </si>
+  <si>
+    <t>삼성역5분,공실없는오피스텔</t>
+  </si>
+  <si>
+    <t>청담역1번출구,깨끗,비지니스환경최고</t>
+  </si>
+  <si>
+    <t>실매물 거주환경 좋은 위치 쾌적성 좋습니다 내부 컨디션 우세 합니다</t>
+  </si>
+  <si>
+    <t>주변시세보다 저렴, 투자수익률 높음, 내부 상태 최상</t>
+  </si>
+  <si>
     <t>포스코사거리 트윈텔2차 매매</t>
   </si>
   <si>
-    <t>실매물 거주환경 좋은 위치 쾌적성 좋습니다 내부 컨디션 우세 합니다</t>
-  </si>
-  <si>
-    <t>청담역1번출구,깨끗,비지니스환경최고</t>
-  </si>
-  <si>
-    <t>삼성역5분,공실없는오피스텔</t>
-  </si>
-  <si>
-    <t>주변시세보다 저렴, 투자수익률 높음, 내부 상태 최상</t>
-  </si>
-  <si>
-    <t>아파트 구조, 실입주 가능</t>
+    <t>협의입주 수익률굿 오픈형원룸 풀옵션 선릉역</t>
+  </si>
+  <si>
+    <t>포스코사거리 테헤란로 오피스텔 급매</t>
+  </si>
+  <si>
+    <t>세미분리형 오피스텔 삼성역 5분거리 반려동물가능</t>
+  </si>
+  <si>
+    <t>선릉역 역세권 임대수요 많은 오피매매</t>
+  </si>
+  <si>
+    <t>내부상태 깔끔합니다. 갭투자환영, 급매</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초역세권. 입주가능. </t>
+  </si>
+  <si>
+    <t>입점부동산 입주가능함 9호선 분당선 환승역세권5분거리</t>
+  </si>
+  <si>
+    <t>청담역 바로앞 푸르지오시티 부담없이 연락주세요</t>
+  </si>
+  <si>
+    <t>더블역세권. 주거겸업무동시 가능.</t>
+  </si>
+  <si>
+    <t>실입주 가능합니다.</t>
+  </si>
+  <si>
+    <t>임대승계 매매입니다.</t>
+  </si>
+  <si>
+    <t>실입주가능 투룸 신혼추천 내부깔끔 보안경비우수 편의시설풍부 자주식주차</t>
+  </si>
+  <si>
+    <t>테헤란로변 업무지역 업무전용 오피스텔 매매</t>
+  </si>
+  <si>
+    <t>투자가치 높은 삼성동 업무용 소형 오피스텔</t>
+  </si>
+  <si>
+    <t>실매물 더블역세권 32 아파트구조</t>
+  </si>
+  <si>
+    <t>투자가치굿 인근개발호재 초역세권 신축 교통굿 휘트니스시설</t>
+  </si>
+  <si>
+    <t>한전개발호재 삼성역역세권 급매 임대수익 투자용으로 강추함</t>
+  </si>
+  <si>
+    <t>실매물,아파트구조,실입주가능</t>
+  </si>
+  <si>
+    <t>투자용 오피스텔</t>
+  </si>
+  <si>
+    <t>입주 협의 가능한 매매</t>
+  </si>
+  <si>
+    <t>삼성동 테헤란로 회사 밀집지역으로 수익성 보장되는 오피스텔</t>
+  </si>
+  <si>
+    <t>청담역인근에서 투자가치 가장 좋은 신축 오피스텔</t>
+  </si>
+  <si>
+    <t>실매물 직접매물 청담역 초역세권 투자가치 높은 매물</t>
+  </si>
+  <si>
+    <t>청담역,청담한강공원,풀옵션,신축</t>
+  </si>
+  <si>
+    <t>청담역,풀옵션,청담공원,한강공원</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전세끼고 투자하세요</t>
+  </si>
+  <si>
+    <t>테헤란대로변 대종오피스텔</t>
+  </si>
+  <si>
+    <t>선릉역 역세권 위치 주차 좋은 오피스텔</t>
   </si>
   <si>
     <t xml:space="preserve">(주)삼성종합부동산중개법인 02-552-4028 l 소재지 대표: 장지현 010-9495-4058 </t>
@@ -193,30 +301,99 @@
     <t xml:space="preserve">휴먼공인중개사 02-555-0079 l 소재지 대표: 장용호 010-4223-0013 </t>
   </si>
   <si>
+    <t xml:space="preserve">탑부동산중개사 02-540-2454 l 소재지 대표: 이성준 010-2512-2454 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리공인중개사사무소 02-555-5444 l 소재지 대표: 최혜정  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">라움부동산중개 02-541-8898 l 소재지 대표: 이형원 010-7228-8531 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">파크공인중개사사무소 02-567-1104 l 소재지 대표: 한세희 010-8674-6846 </t>
+  </si>
+  <si>
     <t xml:space="preserve">LG트윈텔공인중개사 02-2191-6600 l 소재지 대표: 권준범 010-7674-5842 </t>
   </si>
   <si>
-    <t xml:space="preserve">파크공인중개사사무소 02-567-1104 l 소재지 대표: 한세희 010-8674-6846 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">라움부동산중개 02-541-8898 l 소재지 대표: 이형원 010-7228-8531 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">우리공인중개사사무소 02-555-5444 l 소재지 대표: 최혜정  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">탑부동산중개사 02-540-2454 l 소재지 대표: 이성준 010-2512-2454 </t>
+    <t>모카공인중개사사무소 02-3452-0068 l 소재지 대표: 최병철 010-2004-0068 톡톡상담</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뉴스부동산컴공인중개사사무소  l 소재지 대표: 김재필 010-3260-7967 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">스카이빌딩부동산중개주식회사 02-6925-5318 l 소재지 대표: 허봉환 010-9236-9219 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">미래공인중개사 02-523-8181 l 소재지 대표: 권수희 010-4389-0747 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">시원공인중개사사무소 02-3454-0100 l 소재지 대표: 김영범 010-8674-6846 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부동산랜드삼성공인 02-543-8959 l 소재지 대표: 박명옥  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">두자매공인중개사사무소 02-546-4553 l 소재지 대표: 최선영 010-2424-2400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부동산마트공인중개사사무소 02-543-9797 l 소재지 대표: 한조광 010-5300-1917 </t>
+  </si>
+  <si>
+    <t>대박공인중개사사무소 02-565-8942 l 소재지 대표: 이순도  톡톡상담</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팰리스공인중개사사무소 02-546-4901 l 소재지 대표: 황은정 010-4800-2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">내외부동산 02-545-3434 l 소재지 대표: 한원우 010-3128-4456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">파란공인중개사 02-567-8249 l 소재지 대표: 손승현 010-8609-0207 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">굿모닝공인중개사사무소 02-511-4900 l 소재지 대표: 최종훈 010-3388-1189 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">주식회사 리얼뱅크부동산중개법인 02-563-2727 l 소재지 대표: 권영일 010-5480-1805 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이룸공인중개사사무소 02-501-6305 l 소재지 대표: 최우성 010-7138-2378 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경일공인중개사사무소 02-541-9033 l 소재지 대표: 고민우 010-3164-8662 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">원스타부동산중개 02-3490-0011 l 소재지 대표: 김태수 010-8649-7749 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">강남제일공인중개사사무소 02-567-0358 l 소재지 대표: 김정태 010-7565-0358 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">대림웰컴공인중개사사무소 02-555-2341 l 소재지 대표: 이길남 010-8864-8181 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">파크공인중개사사무소 02-555-4050 l 소재지 대표: 한세희 010-8654-6846 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">으뜸공인중개사사무소 02-512-1555 l 소재지 대표: 정수영 010-3857-8287 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">상원부동산중개 (주) 02-541-8866 l 소재지 대표: 박상원 010-7228-8531 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리공인중개사사무소 02-532-1365 l 소재지 대표: 정경이 010-9595-6002 </t>
   </si>
   <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1819155292&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1819058731&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818986832&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1819058731&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1819074463&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
@@ -235,48 +412,48 @@
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818148075&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818615562&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818533027&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818614610&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818585241&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818585916&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818588645&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818585241&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818614610&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818533027&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818585916&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818615562&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1819089943&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818615425&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818604841&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818615425&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818897387&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818383925&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818391653&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818383925&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818326717&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818317140&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818326717&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818865739&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
@@ -289,13 +466,136 @@
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818652293&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818675027&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818659028&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818668252&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818675027&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818659028&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818547213&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818571416&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817988107&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817992652&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818563672&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818588103&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818513252&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818476019&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818509086&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818042165&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817700836&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817457514&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817443676&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818171990&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817758018&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817653491&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817648687&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818212254&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818260487&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817663774&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817525205&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818042950&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818059239&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818015956&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817969141&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817421050&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817447703&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817294064&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817335532&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817123226&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817110157&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1819023421&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1819022190&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818548067&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818143944&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818119585&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818081309&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817907213&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817907317&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817607348&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817640199&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
 </sst>
 </file>
@@ -670,7 +970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -764,25 +1064,25 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2">
         <v>7500</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="Q2">
         <v>14455120</v>
@@ -794,7 +1094,7 @@
         <v>38139</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -802,22 +1102,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>30300</v>
+        <v>28000</v>
       </c>
       <c r="D3">
-        <v>68.54000000000001</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E3">
-        <v>39.99</v>
+        <v>36.16</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -826,37 +1126,37 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3">
-        <v>7000</v>
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="Q3">
-        <v>14223170</v>
+        <v>13154200</v>
       </c>
       <c r="R3">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="S3" s="2">
-        <v>38139</v>
+        <v>37803</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -864,22 +1164,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>28000</v>
+        <v>30300</v>
       </c>
       <c r="D4">
-        <v>66.34999999999999</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="E4">
-        <v>36.16</v>
+        <v>39.99</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -888,37 +1188,37 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <v>7000</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="Q4">
-        <v>13154200</v>
+        <v>14223170</v>
       </c>
       <c r="R4">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="S4" s="2">
-        <v>37803</v>
+        <v>38139</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -950,25 +1250,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5">
         <v>100000</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>18257100</v>
@@ -980,7 +1280,7 @@
         <v>41791</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1012,25 +1312,25 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
         <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="Q6">
         <v>29437950</v>
@@ -1042,7 +1342,7 @@
         <v>37681</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1074,25 +1374,25 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="Q7">
         <v>15473700</v>
@@ -1104,7 +1404,7 @@
         <v>38139</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1136,25 +1436,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="Q8">
         <v>30367250</v>
@@ -1166,7 +1466,7 @@
         <v>37681</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1198,25 +1498,25 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="Q9">
         <v>33155150</v>
@@ -1228,7 +1528,7 @@
         <v>38687</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1248,7 +1548,7 @@
         <v>40.11</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1260,25 +1560,25 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="Q10">
         <v>14545900</v>
@@ -1290,7 +1590,7 @@
         <v>38139</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1298,61 +1598,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>21500</v>
+        <v>72000</v>
       </c>
       <c r="D11">
-        <v>67.33</v>
+        <v>137.35</v>
       </c>
       <c r="E11">
-        <v>33.21</v>
+        <v>85.78</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="Q11">
-        <v>10129175</v>
+        <v>33619800</v>
       </c>
       <c r="R11">
-        <v>108</v>
+        <v>648</v>
       </c>
       <c r="S11" s="2">
-        <v>36647</v>
+        <v>38687</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1360,22 +1660,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>31500</v>
+        <v>20000</v>
       </c>
       <c r="D12">
-        <v>66.76000000000001</v>
+        <v>43.18</v>
       </c>
       <c r="E12">
-        <v>35.69</v>
+        <v>23.29</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1384,37 +1684,37 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="L12">
+        <v>100000</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="Q12">
-        <v>14777850</v>
+        <v>9434000</v>
       </c>
       <c r="R12">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="S12" s="2">
-        <v>38139</v>
+        <v>37895</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1446,25 +1746,25 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="P13" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="Q13">
         <v>10360900</v>
@@ -1476,7 +1776,7 @@
         <v>33117</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1484,22 +1784,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>20000</v>
+        <v>31500</v>
       </c>
       <c r="D14">
-        <v>43.18</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="E14">
-        <v>23.29</v>
+        <v>35.69</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1508,37 +1808,37 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14">
-        <v>100000</v>
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P14" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="Q14">
-        <v>9434000</v>
+        <v>14777850</v>
       </c>
       <c r="R14">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="S14" s="2">
-        <v>37895</v>
+        <v>38139</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1546,7 +1846,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>26800</v>
@@ -1570,25 +1870,25 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
         <v>32</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P15" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="Q15">
         <v>12599520</v>
@@ -1600,7 +1900,7 @@
         <v>33512</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1608,61 +1908,61 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>72000</v>
+        <v>21500</v>
       </c>
       <c r="D16">
-        <v>137.35</v>
+        <v>67.33</v>
       </c>
       <c r="E16">
-        <v>85.78</v>
+        <v>33.21</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P16" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="Q16">
-        <v>33619800</v>
+        <v>10129175</v>
       </c>
       <c r="R16">
-        <v>648</v>
+        <v>108</v>
       </c>
       <c r="S16" s="2">
-        <v>38687</v>
+        <v>36647</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1670,61 +1970,61 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>31000</v>
+      </c>
+      <c r="D17">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="E17">
+        <v>39.99</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" t="s">
-        <v>29</v>
-      </c>
-      <c r="S17" t="s">
-        <v>29</v>
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>14545900</v>
+      </c>
+      <c r="R17">
+        <v>155</v>
+      </c>
+      <c r="S17" s="2">
+        <v>38139</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1732,61 +2032,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>23000</v>
+      </c>
+      <c r="D18">
+        <v>68.44</v>
+      </c>
+      <c r="E18">
+        <v>31.5</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="N18">
+        <v>70</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" t="s">
-        <v>29</v>
+        <v>101</v>
+      </c>
+      <c r="Q18">
+        <v>10824350</v>
+      </c>
+      <c r="R18">
+        <v>115</v>
+      </c>
+      <c r="S18" s="2">
+        <v>33512</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1796,59 +2096,59 @@
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
+      <c r="C19">
+        <v>24000</v>
+      </c>
+      <c r="D19">
+        <v>53.55</v>
+      </c>
+      <c r="E19">
+        <v>34.01</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" t="s">
-        <v>29</v>
+        <v>102</v>
+      </c>
+      <c r="Q19">
+        <v>11287800</v>
+      </c>
+      <c r="R19">
+        <v>120</v>
+      </c>
+      <c r="S19" s="2">
+        <v>36465</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1856,61 +2156,61 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>31000</v>
+      </c>
+      <c r="D20">
+        <v>67.43000000000001</v>
+      </c>
+      <c r="E20">
+        <v>39.34</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" t="s">
-        <v>29</v>
+        <v>103</v>
+      </c>
+      <c r="Q20">
+        <v>14545900</v>
+      </c>
+      <c r="R20">
+        <v>155</v>
+      </c>
+      <c r="S20" s="2">
+        <v>38139</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1918,61 +2218,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>30800</v>
+      </c>
+      <c r="D21">
+        <v>68.73999999999999</v>
+      </c>
+      <c r="E21">
+        <v>40.11</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21" t="s">
-        <v>29</v>
+        <v>104</v>
+      </c>
+      <c r="Q21">
+        <v>14455120</v>
+      </c>
+      <c r="R21">
+        <v>154</v>
+      </c>
+      <c r="S21" s="2">
+        <v>38139</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1980,61 +2280,61 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>60000</v>
+      </c>
+      <c r="D22">
+        <v>100.98</v>
+      </c>
+      <c r="E22">
+        <v>59.08</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" t="s">
-        <v>29</v>
-      </c>
-      <c r="S22" t="s">
-        <v>29</v>
+        <v>105</v>
+      </c>
+      <c r="Q22">
+        <v>27999000</v>
+      </c>
+      <c r="R22">
+        <v>300</v>
+      </c>
+      <c r="S22" s="2">
+        <v>37681</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2042,61 +2342,61 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>65000</v>
+      </c>
+      <c r="D23">
+        <v>85.03</v>
+      </c>
+      <c r="E23">
+        <v>50.06</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" t="s">
-        <v>29</v>
-      </c>
-      <c r="S23" t="s">
-        <v>29</v>
+        <v>106</v>
+      </c>
+      <c r="Q23">
+        <v>30367250</v>
+      </c>
+      <c r="R23">
+        <v>325</v>
+      </c>
+      <c r="S23" s="2">
+        <v>37681</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2104,61 +2404,61 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>71000</v>
+      </c>
+      <c r="D24">
+        <v>137.35</v>
+      </c>
+      <c r="E24">
+        <v>85.78</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" t="s">
-        <v>29</v>
+        <v>107</v>
+      </c>
+      <c r="Q24">
+        <v>33155150</v>
+      </c>
+      <c r="R24">
+        <v>639</v>
+      </c>
+      <c r="S24" s="2">
+        <v>38687</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2166,61 +2466,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>39000</v>
+      </c>
+      <c r="D25">
+        <v>57.36</v>
+      </c>
+      <c r="E25">
+        <v>25.84</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>29</v>
-      </c>
-      <c r="R25" t="s">
-        <v>29</v>
-      </c>
-      <c r="S25" t="s">
-        <v>29</v>
+        <v>108</v>
+      </c>
+      <c r="Q25">
+        <v>18257100</v>
+      </c>
+      <c r="R25">
+        <v>195</v>
+      </c>
+      <c r="S25" s="2">
+        <v>41791</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2228,61 +2528,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>51000</v>
+      </c>
+      <c r="D26">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="E26">
+        <v>53.43</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" t="s">
-        <v>29</v>
+        <v>88</v>
+      </c>
+      <c r="Q26">
+        <v>23823900</v>
+      </c>
+      <c r="R26">
+        <v>255</v>
+      </c>
+      <c r="S26" s="2">
+        <v>38139</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2290,61 +2590,61 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>74000</v>
+      </c>
+      <c r="D27">
+        <v>137.35</v>
+      </c>
+      <c r="E27">
+        <v>85.78</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="P27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" t="s">
-        <v>29</v>
-      </c>
-      <c r="S27" t="s">
-        <v>29</v>
+        <v>109</v>
+      </c>
+      <c r="Q27">
+        <v>34549100</v>
+      </c>
+      <c r="R27">
+        <v>666</v>
+      </c>
+      <c r="S27" s="2">
+        <v>38687</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2352,61 +2652,61 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>32000</v>
+      </c>
+      <c r="D28">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="E28">
+        <v>39.99</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="L28">
+        <v>7500</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O28" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>29</v>
-      </c>
-      <c r="R28" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" t="s">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="Q28">
+        <v>15009800</v>
+      </c>
+      <c r="R28">
+        <v>160</v>
+      </c>
+      <c r="S28" s="2">
+        <v>38139</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2414,61 +2714,61 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>31000</v>
+      </c>
+      <c r="D29">
+        <v>56.02</v>
+      </c>
+      <c r="E29">
+        <v>32.69</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="P29" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>29</v>
-      </c>
-      <c r="R29" t="s">
-        <v>29</v>
-      </c>
-      <c r="S29" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="Q29">
+        <v>14545900</v>
+      </c>
+      <c r="R29">
+        <v>155</v>
+      </c>
+      <c r="S29" s="2">
+        <v>38139</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2476,61 +2776,61 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>51000</v>
+      </c>
+      <c r="D30">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="E30">
+        <v>53.43</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="P30" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>29</v>
-      </c>
-      <c r="R30" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" t="s">
-        <v>29</v>
+        <v>111</v>
+      </c>
+      <c r="Q30">
+        <v>23823900</v>
+      </c>
+      <c r="R30">
+        <v>255</v>
+      </c>
+      <c r="S30" s="2">
+        <v>38139</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2538,61 +2838,2603 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>23000</v>
+      </c>
+      <c r="D31">
+        <v>68.44</v>
+      </c>
+      <c r="E31">
+        <v>31.5</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>70</v>
       </c>
       <c r="O31" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="P31" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>29</v>
-      </c>
-      <c r="R31" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" t="s">
-        <v>29</v>
+        <v>112</v>
+      </c>
+      <c r="Q31">
+        <v>10824350</v>
+      </c>
+      <c r="R31">
+        <v>115</v>
+      </c>
+      <c r="S31" s="2">
+        <v>33512</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>93</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>21500</v>
+      </c>
+      <c r="D32">
+        <v>67.33</v>
+      </c>
+      <c r="E32">
+        <v>33.21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32">
+        <v>10129175</v>
+      </c>
+      <c r="R32">
+        <v>108</v>
+      </c>
+      <c r="S32" s="2">
+        <v>36647</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>31000</v>
+      </c>
+      <c r="D33">
+        <v>72.72</v>
+      </c>
+      <c r="E33">
+        <v>39.99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q33">
+        <v>14545900</v>
+      </c>
+      <c r="R33">
+        <v>155</v>
+      </c>
+      <c r="S33" s="2">
+        <v>38139</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>73000</v>
+      </c>
+      <c r="D34">
+        <v>137.35</v>
+      </c>
+      <c r="E34">
+        <v>85.78</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q34">
+        <v>34084450</v>
+      </c>
+      <c r="R34">
+        <v>657</v>
+      </c>
+      <c r="S34" s="2">
+        <v>38687</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>39000</v>
+      </c>
+      <c r="D35">
+        <v>57.36</v>
+      </c>
+      <c r="E35">
+        <v>25.84</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q35">
+        <v>18257100</v>
+      </c>
+      <c r="R35">
+        <v>195</v>
+      </c>
+      <c r="S35" s="2">
+        <v>41791</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>20000</v>
+      </c>
+      <c r="D36">
+        <v>43.18</v>
+      </c>
+      <c r="E36">
+        <v>23.29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>75</v>
+      </c>
+      <c r="P36" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q36">
+        <v>9434000</v>
+      </c>
+      <c r="R36">
+        <v>100</v>
+      </c>
+      <c r="S36" s="2">
+        <v>37895</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>73000</v>
+      </c>
+      <c r="D37">
+        <v>137.35</v>
+      </c>
+      <c r="E37">
+        <v>85.78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q37">
+        <v>34084450</v>
+      </c>
+      <c r="R37">
+        <v>657</v>
+      </c>
+      <c r="S37" s="2">
+        <v>38687</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>33000</v>
+      </c>
+      <c r="D38">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="E38">
+        <v>35.69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38">
+        <v>105</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q38">
+        <v>15473700</v>
+      </c>
+      <c r="R38">
+        <v>165</v>
+      </c>
+      <c r="S38" s="2">
+        <v>38139</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>34000</v>
+      </c>
+      <c r="D39">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="E39">
+        <v>35.69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q39">
+        <v>15937600</v>
+      </c>
+      <c r="R39">
+        <v>170</v>
+      </c>
+      <c r="S39" s="2">
+        <v>38139</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>31000</v>
+      </c>
+      <c r="D40">
+        <v>68.73999999999999</v>
+      </c>
+      <c r="E40">
+        <v>40.11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q40">
+        <v>14545900</v>
+      </c>
+      <c r="R40">
+        <v>155</v>
+      </c>
+      <c r="S40" s="2">
+        <v>38139</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>38900</v>
+      </c>
+      <c r="D41">
+        <v>57.36</v>
+      </c>
+      <c r="E41">
+        <v>25.84</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q41">
+        <v>18216710</v>
+      </c>
+      <c r="R41">
+        <v>195</v>
+      </c>
+      <c r="S41" s="2">
+        <v>41791</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>65000</v>
+      </c>
+      <c r="D42">
+        <v>85.03</v>
+      </c>
+      <c r="E42">
+        <v>50.06</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q42">
+        <v>30367250</v>
+      </c>
+      <c r="R42">
+        <v>325</v>
+      </c>
+      <c r="S42" s="2">
+        <v>37681</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>40000</v>
+      </c>
+      <c r="D43">
+        <v>57.36</v>
+      </c>
+      <c r="E43">
+        <v>25.84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43">
+        <v>115</v>
+      </c>
+      <c r="O43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P43" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q43">
+        <v>18721000</v>
+      </c>
+      <c r="R43">
+        <v>200</v>
+      </c>
+      <c r="S43" s="2">
+        <v>41791</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>40000</v>
+      </c>
+      <c r="D44">
+        <v>57.36</v>
+      </c>
+      <c r="E44">
+        <v>25.84</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44">
+        <v>115</v>
+      </c>
+      <c r="O44" t="s">
+        <v>83</v>
+      </c>
+      <c r="P44" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q44">
+        <v>18721000</v>
+      </c>
+      <c r="R44">
+        <v>200</v>
+      </c>
+      <c r="S44" s="2">
+        <v>41791</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>31000</v>
+      </c>
+      <c r="D45">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="E45">
+        <v>39.99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45">
+        <v>7000</v>
+      </c>
+      <c r="M45" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q45">
+        <v>14545900</v>
+      </c>
+      <c r="R45">
+        <v>155</v>
+      </c>
+      <c r="S45" s="2">
+        <v>38139</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>21500</v>
+      </c>
+      <c r="D46">
+        <v>68.44</v>
+      </c>
+      <c r="E46">
+        <v>31.5</v>
+      </c>
+      <c r="F46">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q46">
+        <v>10129175</v>
+      </c>
+      <c r="R46">
+        <v>108</v>
+      </c>
+      <c r="S46" s="2">
+        <v>33512</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>31000</v>
+      </c>
+      <c r="D47">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="E47">
+        <v>39.99</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q47">
+        <v>14545900</v>
+      </c>
+      <c r="R47">
+        <v>155</v>
+      </c>
+      <c r="S47" s="2">
+        <v>38139</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" t="s">
+        <v>30</v>
+      </c>
+      <c r="S48" t="s">
+        <v>30</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" t="s">
+        <v>30</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" t="s">
+        <v>30</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51" t="s">
+        <v>30</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O52" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" t="s">
+        <v>30</v>
+      </c>
+      <c r="S52" t="s">
+        <v>30</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" t="s">
+        <v>30</v>
+      </c>
+      <c r="S53" t="s">
+        <v>30</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>30</v>
+      </c>
+      <c r="R54" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54" t="s">
+        <v>30</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55" t="s">
+        <v>30</v>
+      </c>
+      <c r="P55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" t="s">
+        <v>30</v>
+      </c>
+      <c r="S55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N56" t="s">
+        <v>30</v>
+      </c>
+      <c r="O56" t="s">
+        <v>30</v>
+      </c>
+      <c r="P56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R56" t="s">
+        <v>30</v>
+      </c>
+      <c r="S56" t="s">
+        <v>30</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" t="s">
+        <v>30</v>
+      </c>
+      <c r="M57" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57" t="s">
+        <v>30</v>
+      </c>
+      <c r="O57" t="s">
+        <v>30</v>
+      </c>
+      <c r="P57" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>30</v>
+      </c>
+      <c r="R57" t="s">
+        <v>30</v>
+      </c>
+      <c r="S57" t="s">
+        <v>30</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" t="s">
+        <v>30</v>
+      </c>
+      <c r="N58" t="s">
+        <v>30</v>
+      </c>
+      <c r="O58" t="s">
+        <v>30</v>
+      </c>
+      <c r="P58" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>30</v>
+      </c>
+      <c r="R58" t="s">
+        <v>30</v>
+      </c>
+      <c r="S58" t="s">
+        <v>30</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" t="s">
+        <v>30</v>
+      </c>
+      <c r="N59" t="s">
+        <v>30</v>
+      </c>
+      <c r="O59" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>30</v>
+      </c>
+      <c r="R59" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" t="s">
+        <v>30</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>30</v>
+      </c>
+      <c r="O60" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60" t="s">
+        <v>30</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" t="s">
+        <v>30</v>
+      </c>
+      <c r="O61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" t="s">
+        <v>30</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62" t="s">
+        <v>30</v>
+      </c>
+      <c r="O62" t="s">
+        <v>30</v>
+      </c>
+      <c r="P62" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62" t="s">
+        <v>30</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" t="s">
+        <v>30</v>
+      </c>
+      <c r="N63" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63" t="s">
+        <v>30</v>
+      </c>
+      <c r="P63" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>30</v>
+      </c>
+      <c r="R63" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63" t="s">
+        <v>30</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64" t="s">
+        <v>30</v>
+      </c>
+      <c r="P64" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R64" t="s">
+        <v>30</v>
+      </c>
+      <c r="S64" t="s">
+        <v>30</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" t="s">
+        <v>30</v>
+      </c>
+      <c r="O65" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>30</v>
+      </c>
+      <c r="R65" t="s">
+        <v>30</v>
+      </c>
+      <c r="S65" t="s">
+        <v>30</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O66" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>30</v>
+      </c>
+      <c r="R66" t="s">
+        <v>30</v>
+      </c>
+      <c r="S66" t="s">
+        <v>30</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67" t="s">
+        <v>30</v>
+      </c>
+      <c r="P67" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>30</v>
+      </c>
+      <c r="R67" t="s">
+        <v>30</v>
+      </c>
+      <c r="S67" t="s">
+        <v>30</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" t="s">
+        <v>30</v>
+      </c>
+      <c r="M68" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68" t="s">
+        <v>30</v>
+      </c>
+      <c r="O68" t="s">
+        <v>30</v>
+      </c>
+      <c r="P68" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>30</v>
+      </c>
+      <c r="R68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>30</v>
+      </c>
+      <c r="R69" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" t="s">
+        <v>30</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" t="s">
+        <v>30</v>
+      </c>
+      <c r="M70" t="s">
+        <v>30</v>
+      </c>
+      <c r="N70" t="s">
+        <v>30</v>
+      </c>
+      <c r="O70" t="s">
+        <v>30</v>
+      </c>
+      <c r="P70" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>30</v>
+      </c>
+      <c r="R70" t="s">
+        <v>30</v>
+      </c>
+      <c r="S70" t="s">
+        <v>30</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" t="s">
+        <v>30</v>
+      </c>
+      <c r="O71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P71" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>30</v>
+      </c>
+      <c r="R71" t="s">
+        <v>30</v>
+      </c>
+      <c r="S71" t="s">
+        <v>30</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" t="s">
+        <v>30</v>
+      </c>
+      <c r="P72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>30</v>
+      </c>
+      <c r="R72" t="s">
+        <v>30</v>
+      </c>
+      <c r="S72" t="s">
+        <v>30</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2627,6 +5469,47 @@
     <hyperlink ref="T29" r:id="rId28"/>
     <hyperlink ref="T30" r:id="rId29"/>
     <hyperlink ref="T31" r:id="rId30"/>
+    <hyperlink ref="T32" r:id="rId31"/>
+    <hyperlink ref="T33" r:id="rId32"/>
+    <hyperlink ref="T34" r:id="rId33"/>
+    <hyperlink ref="T35" r:id="rId34"/>
+    <hyperlink ref="T36" r:id="rId35"/>
+    <hyperlink ref="T37" r:id="rId36"/>
+    <hyperlink ref="T38" r:id="rId37"/>
+    <hyperlink ref="T39" r:id="rId38"/>
+    <hyperlink ref="T40" r:id="rId39"/>
+    <hyperlink ref="T41" r:id="rId40"/>
+    <hyperlink ref="T42" r:id="rId41"/>
+    <hyperlink ref="T43" r:id="rId42"/>
+    <hyperlink ref="T44" r:id="rId43"/>
+    <hyperlink ref="T45" r:id="rId44"/>
+    <hyperlink ref="T46" r:id="rId45"/>
+    <hyperlink ref="T47" r:id="rId46"/>
+    <hyperlink ref="T48" r:id="rId47"/>
+    <hyperlink ref="T49" r:id="rId48"/>
+    <hyperlink ref="T50" r:id="rId49"/>
+    <hyperlink ref="T51" r:id="rId50"/>
+    <hyperlink ref="T52" r:id="rId51"/>
+    <hyperlink ref="T53" r:id="rId52"/>
+    <hyperlink ref="T54" r:id="rId53"/>
+    <hyperlink ref="T55" r:id="rId54"/>
+    <hyperlink ref="T56" r:id="rId55"/>
+    <hyperlink ref="T57" r:id="rId56"/>
+    <hyperlink ref="T58" r:id="rId57"/>
+    <hyperlink ref="T59" r:id="rId58"/>
+    <hyperlink ref="T60" r:id="rId59"/>
+    <hyperlink ref="T61" r:id="rId60"/>
+    <hyperlink ref="T62" r:id="rId61"/>
+    <hyperlink ref="T63" r:id="rId62"/>
+    <hyperlink ref="T64" r:id="rId63"/>
+    <hyperlink ref="T65" r:id="rId64"/>
+    <hyperlink ref="T66" r:id="rId65"/>
+    <hyperlink ref="T67" r:id="rId66"/>
+    <hyperlink ref="T68" r:id="rId67"/>
+    <hyperlink ref="T69" r:id="rId68"/>
+    <hyperlink ref="T70" r:id="rId69"/>
+    <hyperlink ref="T71" r:id="rId70"/>
+    <hyperlink ref="T72" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Officetel_서울특별시_20181019.xlsx
+++ b/Officetel_서울특별시_20181019.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seeyonglee/naver_real_estate_crawler/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="서울특별시_20181019" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="239">
   <si>
     <t>물건명</t>
   </si>
@@ -91,21 +104,33 @@
     <t>삼성동지웰 1동</t>
   </si>
   <si>
+    <t>대종 1동</t>
+  </si>
+  <si>
     <t>삼성역두산위브센티움 1동</t>
   </si>
   <si>
+    <t>LG트윈텔2 1동</t>
+  </si>
+  <si>
     <t>원일 1동</t>
   </si>
   <si>
-    <t>대종 1동</t>
-  </si>
-  <si>
-    <t>LG트윈텔2 1동</t>
-  </si>
-  <si>
     <t>하남(아셈빌라텔) 1동</t>
   </si>
   <si>
+    <t>채널리저브 102동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성역두산위브센티움 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG트윈텔2 </t>
+  </si>
+  <si>
+    <t>퍼시픽 101동</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -121,12 +146,12 @@
     <t>3개월 이내</t>
   </si>
   <si>
+    <t>6개월 이내 협의가능</t>
+  </si>
+  <si>
     <t>2개월 이내</t>
   </si>
   <si>
-    <t>6개월 이내 협의가능</t>
-  </si>
-  <si>
     <t>19년 10월이후 협의가능</t>
   </si>
   <si>
@@ -148,6 +173,15 @@
     <t>6개월 이내</t>
   </si>
   <si>
+    <t>5개월 이내</t>
+  </si>
+  <si>
+    <t>18년 10월이후 협의가능</t>
+  </si>
+  <si>
+    <t>- 협의가능</t>
+  </si>
+  <si>
     <t>갭투자 7천 최저가입니다.</t>
   </si>
   <si>
@@ -175,24 +209,24 @@
     <t>평당가1500만원대 매물입니다.</t>
   </si>
   <si>
+    <t>주변시세보다 저렴, 투자수익률 높음, 내부 상태 최상</t>
+  </si>
+  <si>
+    <t>삼성역5분,공실없는오피스텔</t>
+  </si>
+  <si>
+    <t>포스코사거리 트윈텔2차 매매</t>
+  </si>
+  <si>
     <t>아파트 구조, 실입주 가능</t>
   </si>
   <si>
-    <t>삼성역5분,공실없는오피스텔</t>
+    <t>실매물 거주환경 좋은 위치 쾌적성 좋습니다 내부 컨디션 우세 합니다</t>
   </si>
   <si>
     <t>청담역1번출구,깨끗,비지니스환경최고</t>
   </si>
   <si>
-    <t>실매물 거주환경 좋은 위치 쾌적성 좋습니다 내부 컨디션 우세 합니다</t>
-  </si>
-  <si>
-    <t>주변시세보다 저렴, 투자수익률 높음, 내부 상태 최상</t>
-  </si>
-  <si>
-    <t>포스코사거리 트윈텔2차 매매</t>
-  </si>
-  <si>
     <t>협의입주 수익률굿 오픈형원룸 풀옵션 선릉역</t>
   </si>
   <si>
@@ -208,12 +242,12 @@
     <t>내부상태 깔끔합니다. 갭투자환영, 급매</t>
   </si>
   <si>
+    <t>입점부동산 입주가능함 9호선 분당선 환승역세권5분거리</t>
+  </si>
+  <si>
     <t xml:space="preserve">초역세권. 입주가능. </t>
   </si>
   <si>
-    <t>입점부동산 입주가능함 9호선 분당선 환승역세권5분거리</t>
-  </si>
-  <si>
     <t>청담역 바로앞 푸르지오시티 부담없이 연락주세요</t>
   </si>
   <si>
@@ -226,33 +260,33 @@
     <t>임대승계 매매입니다.</t>
   </si>
   <si>
+    <t>테헤란로변 업무지역 업무전용 오피스텔 매매</t>
+  </si>
+  <si>
     <t>실입주가능 투룸 신혼추천 내부깔끔 보안경비우수 편의시설풍부 자주식주차</t>
   </si>
   <si>
-    <t>테헤란로변 업무지역 업무전용 오피스텔 매매</t>
-  </si>
-  <si>
     <t>투자가치 높은 삼성동 업무용 소형 오피스텔</t>
   </si>
   <si>
+    <t>투자가치굿 인근개발호재 초역세권 신축 교통굿 휘트니스시설</t>
+  </si>
+  <si>
     <t>실매물 더블역세권 32 아파트구조</t>
   </si>
   <si>
-    <t>투자가치굿 인근개발호재 초역세권 신축 교통굿 휘트니스시설</t>
-  </si>
-  <si>
     <t>한전개발호재 삼성역역세권 급매 임대수익 투자용으로 강추함</t>
   </si>
   <si>
     <t>실매물,아파트구조,실입주가능</t>
   </si>
   <si>
+    <t>입주 협의 가능한 매매</t>
+  </si>
+  <si>
     <t>투자용 오피스텔</t>
   </si>
   <si>
-    <t>입주 협의 가능한 매매</t>
-  </si>
-  <si>
     <t>삼성동 테헤란로 회사 밀집지역으로 수익성 보장되는 오피스텔</t>
   </si>
   <si>
@@ -262,12 +296,12 @@
     <t>실매물 직접매물 청담역 초역세권 투자가치 높은 매물</t>
   </si>
   <si>
+    <t>청담역,풀옵션,청담공원,한강공원</t>
+  </si>
+  <si>
     <t>청담역,청담한강공원,풀옵션,신축</t>
   </si>
   <si>
-    <t>청담역,풀옵션,청담공원,한강공원</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 전세끼고 투자하세요</t>
   </si>
   <si>
@@ -277,6 +311,81 @@
     <t>선릉역 역세권 위치 주차 좋은 오피스텔</t>
   </si>
   <si>
+    <t>포스코사거리대로변 위치 최고 귀한 매물</t>
+  </si>
+  <si>
+    <t>수익률굿 오픈형원룸 풀옵션 선릉역</t>
+  </si>
+  <si>
+    <t>삼성역5분 급매물 한전인근호재 도심공항터미널 현대백화점 업무밀집지역</t>
+  </si>
+  <si>
+    <t>삼성역 귀한 주거용 오피스텔. 다양한 상권 형성 편의시설 좋습니다.</t>
+  </si>
+  <si>
+    <t>하시입주  청담역1번출구 상태굿</t>
+  </si>
+  <si>
+    <t>초 역세권, 내부 시설 최상, 주변 공원 및 산책 가능하며 매우 조용함.</t>
+  </si>
+  <si>
+    <t>실매물 역세권, 7호선청담역, 버스정류장 인접</t>
+  </si>
+  <si>
+    <t>삼성역5분 한전호재 임대수익굿 투자굿 전용넓고 임대수요풍부한곳</t>
+  </si>
+  <si>
+    <t>선릉역5분 삼성동 한전호재 임대수익굿 투자용으로도굿 현임차인임대중</t>
+  </si>
+  <si>
+    <t>청담역 신축급 임대잘나가는 오피스텔</t>
+  </si>
+  <si>
+    <t>환상적인 한강뷰 층고높고 입주가능합니다.</t>
+  </si>
+  <si>
+    <t>최저가격 7천만원 갭투자 낮은 공실률 투자가치 우수 삼성동</t>
+  </si>
+  <si>
+    <t>갭투자 추천 더블역세권 입주가능한 오피스텔</t>
+  </si>
+  <si>
+    <t>삼성역 5분 세미분리형 오피스텔 매매</t>
+  </si>
+  <si>
+    <t>선릉역2분 한전개발호재 갭투자강추 주차편리한 최고의위치 투자및수익용굿</t>
+  </si>
+  <si>
+    <t>역세권, 코엑스, 로얄층</t>
+  </si>
+  <si>
+    <t>급매, 삼성역, 투자가치 좋은 오피스텔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성동 포스코 사거리 업무용 소형오피스텔 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">에클라트A 저렴한 오피스텔 매매 입니다
+현재 월세로 임차 중입니다
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LG선릉에클라트 오피스텔 매매
+    에클라트B 오피스텔 호</t>
+  </si>
+  <si>
+    <t>거주용 시설 다 되있음. 남향/조망 좋음</t>
+  </si>
+  <si>
+    <t>주거용. 초역세권. 42000만원 투작 가능</t>
+  </si>
+  <si>
+    <t>입주가능합니다.</t>
+  </si>
+  <si>
+    <t>로얄층,향후 재건축시 4억상당의 오피스텔 올수리</t>
+  </si>
+  <si>
     <t xml:space="preserve">(주)삼성종합부동산중개법인 02-552-4028 l 소재지 대표: 장지현 010-9495-4058 </t>
   </si>
   <si>
@@ -301,21 +410,21 @@
     <t xml:space="preserve">휴먼공인중개사 02-555-0079 l 소재지 대표: 장용호 010-4223-0013 </t>
   </si>
   <si>
+    <t xml:space="preserve">파크공인중개사사무소 02-567-1104 l 소재지 대표: 한세희 010-8674-6846 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리공인중개사사무소 02-555-5444 l 소재지 대표: 최혜정  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG트윈텔공인중개사 02-2191-6600 l 소재지 대표: 권준범 010-7674-5842 </t>
+  </si>
+  <si>
     <t xml:space="preserve">탑부동산중개사 02-540-2454 l 소재지 대표: 이성준 010-2512-2454 </t>
   </si>
   <si>
-    <t xml:space="preserve">우리공인중개사사무소 02-555-5444 l 소재지 대표: 최혜정  </t>
-  </si>
-  <si>
     <t xml:space="preserve">라움부동산중개 02-541-8898 l 소재지 대표: 이형원 010-7228-8531 </t>
   </si>
   <si>
-    <t xml:space="preserve">파크공인중개사사무소 02-567-1104 l 소재지 대표: 한세희 010-8674-6846 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG트윈텔공인중개사 02-2191-6600 l 소재지 대표: 권준범 010-7674-5842 </t>
-  </si>
-  <si>
     <t>모카공인중개사사무소 02-3452-0068 l 소재지 대표: 최병철 010-2004-0068 톡톡상담</t>
   </si>
   <si>
@@ -331,15 +440,15 @@
     <t xml:space="preserve">시원공인중개사사무소 02-3454-0100 l 소재지 대표: 김영범 010-8674-6846 </t>
   </si>
   <si>
+    <t xml:space="preserve">부동산마트공인중개사사무소 02-543-9797 l 소재지 대표: 한조광 010-5300-1917 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">두자매공인중개사사무소 02-546-4553 l 소재지 대표: 최선영 010-2424-2400 </t>
+  </si>
+  <si>
     <t xml:space="preserve">부동산랜드삼성공인 02-543-8959 l 소재지 대표: 박명옥  </t>
   </si>
   <si>
-    <t xml:space="preserve">두자매공인중개사사무소 02-546-4553 l 소재지 대표: 최선영 010-2424-2400 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">부동산마트공인중개사사무소 02-543-9797 l 소재지 대표: 한조광 010-5300-1917 </t>
-  </si>
-  <si>
     <t>대박공인중개사사무소 02-565-8942 l 소재지 대표: 이순도  톡톡상담</t>
   </si>
   <si>
@@ -349,21 +458,21 @@
     <t xml:space="preserve">내외부동산 02-545-3434 l 소재지 대표: 한원우 010-3128-4456 </t>
   </si>
   <si>
+    <t xml:space="preserve">굿모닝공인중개사사무소 02-511-4900 l 소재지 대표: 최종훈 010-3388-1189 </t>
+  </si>
+  <si>
     <t xml:space="preserve">파란공인중개사 02-567-8249 l 소재지 대표: 손승현 010-8609-0207 </t>
   </si>
   <si>
-    <t xml:space="preserve">굿모닝공인중개사사무소 02-511-4900 l 소재지 대표: 최종훈 010-3388-1189 </t>
-  </si>
-  <si>
     <t xml:space="preserve">주식회사 리얼뱅크부동산중개법인 02-563-2727 l 소재지 대표: 권영일 010-5480-1805 </t>
   </si>
   <si>
+    <t xml:space="preserve">경일공인중개사사무소 02-541-9033 l 소재지 대표: 고민우 010-3164-8662 </t>
+  </si>
+  <si>
     <t xml:space="preserve">이룸공인중개사사무소 02-501-6305 l 소재지 대표: 최우성 010-7138-2378 </t>
   </si>
   <si>
-    <t xml:space="preserve">경일공인중개사사무소 02-541-9033 l 소재지 대표: 고민우 010-3164-8662 </t>
-  </si>
-  <si>
     <t xml:space="preserve">원스타부동산중개 02-3490-0011 l 소재지 대표: 김태수 010-8649-7749 </t>
   </si>
   <si>
@@ -385,6 +494,48 @@
     <t xml:space="preserve">우리공인중개사사무소 02-532-1365 l 소재지 대표: 정경이 010-9595-6002 </t>
   </si>
   <si>
+    <t xml:space="preserve">포레스트힐부동산공인중개사사무소  l 소재지 대표: 박종화 010-6506-0614 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성공인중개사사무소 02-540-3303 l 소재지 대표: 박계순 010-5442-1413 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">다온공인중개사사무소 02-544-8008 l 소재지 대표: 박상언 010-5100-7672 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부동산뱅크영동공인중개사사무소 02-511-7100 l 소재지 대표: 황옥희 010-8640-1115 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">가연공인중개사사무소 010-2951-3984 l 소재지 대표: 문세나 010-2951-3984 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼일부동산중개 02-558-4400 l 소재지 대표: 최미경 010-2827-2773 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">주식회사세계로부동산중개법인  l 소재지 대표: 홍연우 010-3459-4887 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성메트로칸공인중개사사무소 02-566-0601 l 소재지 대표: 서준형 016-260-0590 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(주)리얼뱅크부동산중개법인 02-563-2727 l 소재지 대표: 권영일 010-7266-1138 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">휴먼공인중개사사무소 02-555-0079 l 소재지 대표: 장용호 010-4223-0013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">한미공인중개사사무소 02-501-3188 l 소재지 대표: 전강식 010-3232-3113 </t>
+  </si>
+  <si>
+    <t>이화공인중개사사무소 02-555-8333 l 소재지 대표: 김태규 010-3343-3312 톡톡상담</t>
+  </si>
+  <si>
+    <t xml:space="preserve">양지공인중개사사무소 02-566-0211 l 소재지 대표: 민혜영 010-7269-3618 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">풍림공인중개사사무소 02-556-8588 l 소재지 대표: 장영곤 010-8211-3579 </t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1819155292&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
@@ -412,24 +563,24 @@
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818148075&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818585916&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818533027&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818588645&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818615562&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818533027&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818585241&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818614610&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818585241&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818585916&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818588645&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1819089943&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
@@ -445,15 +596,15 @@
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818383925&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818317140&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818326717&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818391653&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818326717&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818317140&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818865739&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
@@ -469,36 +620,36 @@
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818675027&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818668252&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818659028&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818668252&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818547213&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818571416&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817992652&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817988107&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817992652&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818563672&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818588103&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818476019&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818513252&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818476019&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818509086&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
@@ -508,12 +659,12 @@
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817700836&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817443676&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817457514&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817443676&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818171990&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
@@ -526,12 +677,12 @@
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817648687&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818260487&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818212254&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818260487&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817663774&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
@@ -550,12 +701,12 @@
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817969141&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817447703&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817421050&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817447703&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817294064&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
@@ -586,30 +737,30 @@
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1818081309&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817907317&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+  </si>
+  <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817907213&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817907317&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
+    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817640199&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
   <si>
     <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817607348&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
-  </si>
-  <si>
-    <t>https://land.naver.com//article/articleDetailInfo.nhn?atclNo=1817640199&amp;atclRletTypeCd=A02&amp;rletTypeCd=A02&amp;tradeTypeCd=A1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -617,7 +768,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -627,6 +778,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -673,20 +830,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -728,12 +890,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -760,14 +922,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -794,6 +957,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,14 +1133,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="72.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="100" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1046,7 +1228,7 @@
         <v>30800</v>
       </c>
       <c r="D2">
-        <v>68.73999999999999</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="E2">
         <v>40.11</v>
@@ -1064,25 +1246,25 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>7500</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
+      <c r="M2">
+        <v>24000</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>14455120</v>
@@ -1094,10 +1276,10 @@
         <v>38139</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1108,10 +1290,10 @@
         <v>28000</v>
       </c>
       <c r="D3">
-        <v>66.34999999999999</v>
+        <v>66.349999999999994</v>
       </c>
       <c r="E3">
-        <v>36.16</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1126,25 +1308,25 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>13154200</v>
@@ -1156,10 +1338,10 @@
         <v>37803</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1170,7 +1352,7 @@
         <v>30300</v>
       </c>
       <c r="D4">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="E4">
         <v>39.99</v>
@@ -1188,25 +1370,25 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L4">
         <v>7000</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>14223170</v>
@@ -1218,10 +1400,10 @@
         <v>38139</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1232,7 +1414,7 @@
         <v>39000</v>
       </c>
       <c r="D5">
-        <v>65.73999999999999</v>
+        <v>65.739999999999995</v>
       </c>
       <c r="E5">
         <v>29.62</v>
@@ -1250,25 +1432,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L5">
         <v>100000</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>18257100</v>
@@ -1280,10 +1462,10 @@
         <v>41791</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1294,7 +1476,7 @@
         <v>63000</v>
       </c>
       <c r="D6">
-        <v>85.04000000000001</v>
+        <v>85.04</v>
       </c>
       <c r="E6">
         <v>50.07</v>
@@ -1312,25 +1494,25 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>29437950</v>
@@ -1342,10 +1524,10 @@
         <v>37681</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1356,7 +1538,7 @@
         <v>33000</v>
       </c>
       <c r="D7">
-        <v>66.76000000000001</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="E7">
         <v>35.69</v>
@@ -1374,25 +1556,25 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>15473700</v>
@@ -1404,10 +1586,10 @@
         <v>38139</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1418,7 +1600,7 @@
         <v>65000</v>
       </c>
       <c r="D8">
-        <v>85.04000000000001</v>
+        <v>85.04</v>
       </c>
       <c r="E8">
         <v>50.07</v>
@@ -1436,25 +1618,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>30367250</v>
@@ -1466,10 +1648,10 @@
         <v>37681</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1498,25 +1680,25 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>33155150</v>
@@ -1528,10 +1710,10 @@
         <v>38687</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1542,13 +1724,13 @@
         <v>31000</v>
       </c>
       <c r="D10">
-        <v>68.73999999999999</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="E10">
         <v>40.11</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1560,25 +1742,25 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>14545900</v>
@@ -1590,77 +1772,77 @@
         <v>38139</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>72000</v>
+        <v>26800</v>
       </c>
       <c r="D11">
-        <v>137.35</v>
+        <v>91.23</v>
       </c>
       <c r="E11">
-        <v>85.78</v>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="Q11">
-        <v>33619800</v>
+        <v>12599520</v>
       </c>
       <c r="R11">
-        <v>648</v>
+        <v>134</v>
       </c>
       <c r="S11" s="2">
-        <v>38687</v>
+        <v>33512</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>20000</v>
@@ -1684,25 +1866,25 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L12">
         <v>100000</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>9434000</v>
@@ -1714,30 +1896,30 @@
         <v>37895</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="D13">
-        <v>46.86</v>
+        <v>67.33</v>
       </c>
       <c r="E13">
-        <v>25.65</v>
+        <v>33.21</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1746,122 +1928,122 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="Q13">
-        <v>10360900</v>
+        <v>10129175</v>
       </c>
       <c r="R13">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S13" s="2">
-        <v>33117</v>
+        <v>36647</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>31500</v>
+        <v>72000</v>
       </c>
       <c r="D14">
-        <v>66.76000000000001</v>
+        <v>137.35</v>
       </c>
       <c r="E14">
-        <v>35.69</v>
+        <v>85.78</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="Q14">
-        <v>14777850</v>
+        <v>33619800</v>
       </c>
       <c r="R14">
-        <v>158</v>
+        <v>648</v>
       </c>
       <c r="S14" s="2">
-        <v>38139</v>
+        <v>38687</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>26800</v>
+        <v>31500</v>
       </c>
       <c r="D15">
-        <v>91.23</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="E15">
-        <v>42</v>
+        <v>35.69</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1870,40 +2052,40 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Q15">
-        <v>12599520</v>
+        <v>14777850</v>
       </c>
       <c r="R15">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="S15" s="2">
-        <v>33512</v>
+        <v>38139</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1911,19 +2093,19 @@
         <v>28</v>
       </c>
       <c r="C16">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="D16">
-        <v>67.33</v>
+        <v>46.86</v>
       </c>
       <c r="E16">
-        <v>33.21</v>
+        <v>25.65</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1932,40 +2114,40 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="Q16">
-        <v>10129175</v>
+        <v>10360900</v>
       </c>
       <c r="R16">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S16" s="2">
-        <v>36647</v>
+        <v>33117</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1976,13 +2158,13 @@
         <v>31000</v>
       </c>
       <c r="D17">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="E17">
         <v>39.99</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -1994,25 +2176,25 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M17">
+        <v>24000</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>14545900</v>
@@ -2024,15 +2206,15 @@
         <v>38139</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>23000</v>
@@ -2056,25 +2238,25 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
       </c>
       <c r="N18">
         <v>70</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>10824350</v>
@@ -2086,10 +2268,10 @@
         <v>33512</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2118,25 +2300,25 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>16000</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>11287800</v>
@@ -2148,10 +2330,10 @@
         <v>36465</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2162,13 +2344,13 @@
         <v>31000</v>
       </c>
       <c r="D20">
-        <v>67.43000000000001</v>
+        <v>67.430000000000007</v>
       </c>
       <c r="E20">
-        <v>39.34</v>
+        <v>39.340000000000003</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>8</v>
@@ -2180,25 +2362,25 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>14545900</v>
@@ -2210,10 +2392,10 @@
         <v>38139</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2224,7 +2406,7 @@
         <v>30800</v>
       </c>
       <c r="D21">
-        <v>68.73999999999999</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="E21">
         <v>40.11</v>
@@ -2242,25 +2424,25 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>14455120</v>
@@ -2272,72 +2454,72 @@
         <v>38139</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>60000</v>
+        <v>71000</v>
       </c>
       <c r="D22">
-        <v>100.98</v>
+        <v>137.35</v>
       </c>
       <c r="E22">
-        <v>59.08</v>
+        <v>85.78</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="Q22">
-        <v>27999000</v>
+        <v>33155150</v>
       </c>
       <c r="R22">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="S22" s="2">
-        <v>37681</v>
+        <v>38687</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2366,25 +2548,25 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>30367250</v>
@@ -2396,72 +2578,72 @@
         <v>37681</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>71000</v>
+        <v>60000</v>
       </c>
       <c r="D24">
-        <v>137.35</v>
+        <v>100.98</v>
       </c>
       <c r="E24">
-        <v>85.78</v>
+        <v>59.08</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>35000</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="P24" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="Q24">
-        <v>33155150</v>
+        <v>27999000</v>
       </c>
       <c r="R24">
-        <v>639</v>
+        <v>300</v>
       </c>
       <c r="S24" s="2">
-        <v>38687</v>
+        <v>37681</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2478,7 +2660,7 @@
         <v>25.84</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>20</v>
@@ -2490,25 +2672,25 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>18257100</v>
@@ -2520,10 +2702,10 @@
         <v>41791</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2534,13 +2716,13 @@
         <v>51000</v>
       </c>
       <c r="D26">
-        <v>91.56999999999999</v>
+        <v>91.57</v>
       </c>
       <c r="E26">
         <v>53.43</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>8</v>
@@ -2552,25 +2734,25 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="Q26">
         <v>23823900</v>
@@ -2582,10 +2764,10 @@
         <v>38139</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2614,25 +2796,25 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>34549100</v>
@@ -2644,10 +2826,10 @@
         <v>38687</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2658,13 +2840,13 @@
         <v>32000</v>
       </c>
       <c r="D28">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="E28">
         <v>39.99</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>8</v>
@@ -2676,25 +2858,25 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L28">
         <v>7500</v>
       </c>
-      <c r="M28" t="s">
-        <v>30</v>
+      <c r="M28">
+        <v>24000</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="P28" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="Q28">
         <v>15009800</v>
@@ -2706,10 +2888,10 @@
         <v>38139</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2726,7 +2908,7 @@
         <v>32.69</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>8</v>
@@ -2738,25 +2920,25 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M29">
+        <v>23500</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>14545900</v>
@@ -2768,139 +2950,139 @@
         <v>38139</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>51000</v>
+        <v>23000</v>
       </c>
       <c r="D30">
-        <v>91.56999999999999</v>
+        <v>68.44</v>
       </c>
       <c r="E30">
-        <v>53.43</v>
+        <v>31.5</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M30" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+      <c r="N30">
+        <v>70</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="P30" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="Q30">
-        <v>23823900</v>
+        <v>10824350</v>
       </c>
       <c r="R30">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="S30" s="2">
-        <v>38139</v>
+        <v>33512</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <v>23000</v>
+        <v>51000</v>
       </c>
       <c r="D31">
-        <v>68.44</v>
+        <v>91.57</v>
       </c>
       <c r="E31">
-        <v>31.5</v>
+        <v>53.43</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
         <v>37</v>
       </c>
       <c r="L31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31">
-        <v>70</v>
+        <v>34</v>
+      </c>
+      <c r="N31" t="s">
+        <v>34</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P31" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="Q31">
-        <v>10824350</v>
+        <v>23823900</v>
       </c>
       <c r="R31">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="S31" s="2">
-        <v>33512</v>
+        <v>38139</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>21500</v>
@@ -2912,7 +3094,7 @@
         <v>33.21</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>18</v>
@@ -2924,25 +3106,25 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P32" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>10129175</v>
@@ -2954,10 +3136,10 @@
         <v>36647</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2974,7 +3156,7 @@
         <v>39.99</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>8</v>
@@ -2986,25 +3168,25 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P33" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="Q33">
         <v>14545900</v>
@@ -3016,139 +3198,139 @@
         <v>38139</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>73000</v>
+        <v>39000</v>
       </c>
       <c r="D34">
-        <v>137.35</v>
+        <v>57.36</v>
       </c>
       <c r="E34">
-        <v>85.78</v>
+        <v>25.84</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="Q34">
-        <v>34084450</v>
+        <v>18257100</v>
       </c>
       <c r="R34">
-        <v>657</v>
+        <v>195</v>
       </c>
       <c r="S34" s="2">
-        <v>38687</v>
+        <v>41791</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>39000</v>
+        <v>73000</v>
       </c>
       <c r="D35">
-        <v>57.36</v>
+        <v>137.35</v>
       </c>
       <c r="E35">
-        <v>25.84</v>
+        <v>85.78</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="Q35">
-        <v>18257100</v>
+        <v>34084450</v>
       </c>
       <c r="R35">
-        <v>195</v>
+        <v>657</v>
       </c>
       <c r="S35" s="2">
-        <v>41791</v>
+        <v>38687</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>20000</v>
@@ -3160,7 +3342,7 @@
         <v>23.29</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>12</v>
@@ -3172,25 +3354,25 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O36" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P36" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>9434000</v>
@@ -3202,10 +3384,10 @@
         <v>37895</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3222,7 +3404,7 @@
         <v>85.78</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>9</v>
@@ -3234,25 +3416,25 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>34084450</v>
@@ -3264,10 +3446,10 @@
         <v>38687</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3275,16 +3457,16 @@
         <v>23</v>
       </c>
       <c r="C38">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="D38">
-        <v>66.76000000000001</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="E38">
         <v>35.69</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>8</v>
@@ -3296,40 +3478,40 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38">
-        <v>105</v>
+        <v>34</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P38" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Q38">
-        <v>15473700</v>
+        <v>15937600</v>
       </c>
       <c r="R38">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="S38" s="2">
         <v>38139</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3337,16 +3519,16 @@
         <v>23</v>
       </c>
       <c r="C39">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="D39">
-        <v>66.76000000000001</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="E39">
         <v>35.69</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -3358,40 +3540,40 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39">
+        <v>105</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Q39">
-        <v>15937600</v>
+        <v>15473700</v>
       </c>
       <c r="R39">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S39" s="2">
         <v>38139</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3402,13 +3584,13 @@
         <v>31000</v>
       </c>
       <c r="D40">
-        <v>68.73999999999999</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="E40">
         <v>40.11</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -3420,25 +3602,25 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="Q40">
         <v>14545900</v>
@@ -3450,10 +3632,10 @@
         <v>38139</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3482,25 +3664,25 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O41" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P41" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>18216710</v>
@@ -3512,10 +3694,10 @@
         <v>41791</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3544,25 +3726,25 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P42" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>30367250</v>
@@ -3574,10 +3756,10 @@
         <v>37681</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3594,7 +3776,7 @@
         <v>25.84</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>20</v>
@@ -3606,25 +3788,25 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L43" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M43">
+        <v>1000</v>
       </c>
       <c r="N43">
         <v>115</v>
       </c>
       <c r="O43" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P43" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q43">
         <v>18721000</v>
@@ -3636,10 +3818,10 @@
         <v>41791</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3656,7 +3838,7 @@
         <v>25.84</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>20</v>
@@ -3668,25 +3850,25 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L44" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
       </c>
       <c r="N44">
         <v>115</v>
       </c>
       <c r="O44" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P44" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>18721000</v>
@@ -3698,10 +3880,10 @@
         <v>41791</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3712,13 +3894,13 @@
         <v>31000</v>
       </c>
       <c r="D45">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="E45">
         <v>39.99</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>8</v>
@@ -3730,25 +3912,25 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L45">
         <v>7000</v>
       </c>
-      <c r="M45" t="s">
-        <v>30</v>
+      <c r="M45">
+        <v>24000</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O45" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="Q45">
         <v>14545900</v>
@@ -3760,15 +3942,15 @@
         <v>38139</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>21500</v>
@@ -3792,25 +3974,25 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>10129175</v>
@@ -3822,10 +4004,10 @@
         <v>33512</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3836,7 +4018,7 @@
         <v>31000</v>
       </c>
       <c r="D47">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="E47">
         <v>39.99</v>
@@ -3854,25 +4036,25 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O47" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="Q47">
         <v>14545900</v>
@@ -3884,1560 +4066,1561 @@
         <v>38139</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>27000</v>
+      </c>
+      <c r="D48">
+        <v>91.23</v>
+      </c>
+      <c r="E48">
+        <v>42</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O48" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="P48" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" t="s">
-        <v>30</v>
-      </c>
-      <c r="S48" t="s">
-        <v>30</v>
+        <v>122</v>
+      </c>
+      <c r="Q48">
+        <v>12690300</v>
+      </c>
+      <c r="R48">
+        <v>135</v>
+      </c>
+      <c r="S48" s="2">
+        <v>33512</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>26000</v>
+      </c>
+      <c r="D49">
+        <v>56.02</v>
+      </c>
+      <c r="E49">
+        <v>32.69</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O49" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>30</v>
-      </c>
-      <c r="R49" t="s">
-        <v>30</v>
-      </c>
-      <c r="S49" t="s">
-        <v>30</v>
+        <v>131</v>
+      </c>
+      <c r="Q49">
+        <v>12214700</v>
+      </c>
+      <c r="R49">
+        <v>130</v>
+      </c>
+      <c r="S49" s="2">
+        <v>38139</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>22000</v>
+      </c>
+      <c r="D50">
+        <v>67.94</v>
+      </c>
+      <c r="E50">
+        <v>33.51</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K50" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O50" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" t="s">
-        <v>30</v>
-      </c>
-      <c r="S50" t="s">
-        <v>30</v>
+        <v>147</v>
+      </c>
+      <c r="Q50">
+        <v>10360900</v>
+      </c>
+      <c r="R50">
+        <v>110</v>
+      </c>
+      <c r="S50" s="2">
+        <v>36647</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>20400</v>
+      </c>
+      <c r="D51">
+        <v>43.18</v>
+      </c>
+      <c r="E51">
+        <v>23.29</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K51" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O51" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>30</v>
-      </c>
-      <c r="R51" t="s">
-        <v>30</v>
-      </c>
-      <c r="S51" t="s">
-        <v>30</v>
+        <v>154</v>
+      </c>
+      <c r="Q51">
+        <v>9625380</v>
+      </c>
+      <c r="R51">
+        <v>102</v>
+      </c>
+      <c r="S51" s="2">
+        <v>37895</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <v>22000</v>
+      </c>
+      <c r="D52">
+        <v>46.86</v>
+      </c>
+      <c r="E52">
+        <v>25.65</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K52" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O52" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>30</v>
-      </c>
-      <c r="R52" t="s">
-        <v>30</v>
-      </c>
-      <c r="S52" t="s">
-        <v>30</v>
+        <v>155</v>
+      </c>
+      <c r="Q52">
+        <v>10360900</v>
+      </c>
+      <c r="R52">
+        <v>110</v>
+      </c>
+      <c r="S52" s="2">
+        <v>33117</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
       </c>
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" t="s">
-        <v>30</v>
+      <c r="C53">
+        <v>74700</v>
+      </c>
+      <c r="D53">
+        <v>108.76</v>
+      </c>
+      <c r="E53">
+        <v>61.83</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G53">
+        <v>22</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K53" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L53" t="s">
-        <v>30</v>
-      </c>
-      <c r="M53" t="s">
-        <v>30</v>
-      </c>
-      <c r="N53" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M53">
+        <v>3000</v>
+      </c>
+      <c r="N53">
+        <v>230</v>
       </c>
       <c r="O53" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="P53" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>30</v>
-      </c>
-      <c r="R53" t="s">
-        <v>30</v>
-      </c>
-      <c r="S53" t="s">
-        <v>30</v>
+        <v>150</v>
+      </c>
+      <c r="Q53">
+        <v>34872355</v>
+      </c>
+      <c r="R53">
+        <v>374</v>
+      </c>
+      <c r="S53" s="2">
+        <v>39083</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>60000</v>
+      </c>
+      <c r="D54">
+        <v>85.04</v>
+      </c>
+      <c r="E54">
+        <v>50.07</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K54" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L54" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M54">
+        <v>30000</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O54" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>30</v>
-      </c>
-      <c r="R54" t="s">
-        <v>30</v>
-      </c>
-      <c r="S54" t="s">
-        <v>30</v>
+        <v>156</v>
+      </c>
+      <c r="Q54">
+        <v>27999000</v>
+      </c>
+      <c r="R54">
+        <v>300</v>
+      </c>
+      <c r="S54" s="2">
+        <v>37681</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>21000</v>
+      </c>
+      <c r="D55">
+        <v>43.18</v>
+      </c>
+      <c r="E55">
+        <v>23.29</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G55">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K55" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L55" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N55" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O55" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="P55" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>30</v>
-      </c>
-      <c r="R55" t="s">
-        <v>30</v>
-      </c>
-      <c r="S55" t="s">
-        <v>30</v>
+        <v>147</v>
+      </c>
+      <c r="Q55">
+        <v>9897450</v>
+      </c>
+      <c r="R55">
+        <v>105</v>
+      </c>
+      <c r="S55" s="2">
+        <v>37895</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>32000</v>
+      </c>
+      <c r="D56">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="E56">
+        <v>35.69</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K56" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L56" t="s">
-        <v>30</v>
-      </c>
-      <c r="M56" t="s">
-        <v>30</v>
-      </c>
-      <c r="N56" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M56">
+        <v>1000</v>
+      </c>
+      <c r="N56">
+        <v>105</v>
       </c>
       <c r="O56" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="P56" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>30</v>
-      </c>
-      <c r="R56" t="s">
-        <v>30</v>
-      </c>
-      <c r="S56" t="s">
-        <v>30</v>
+        <v>147</v>
+      </c>
+      <c r="Q56">
+        <v>15009800</v>
+      </c>
+      <c r="R56">
+        <v>160</v>
+      </c>
+      <c r="S56" s="2">
+        <v>38139</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>39000</v>
+      </c>
+      <c r="D57">
+        <v>57.36</v>
+      </c>
+      <c r="E57">
+        <v>25.84</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K57" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O57" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="P57" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>30</v>
-      </c>
-      <c r="R57" t="s">
-        <v>30</v>
-      </c>
-      <c r="S57" t="s">
-        <v>30</v>
+        <v>122</v>
+      </c>
+      <c r="Q57">
+        <v>18257100</v>
+      </c>
+      <c r="R57">
+        <v>195</v>
+      </c>
+      <c r="S57" s="2">
+        <v>41791</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>60000</v>
+      </c>
+      <c r="D58">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="E58">
+        <v>29.54</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K58" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O58" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>30</v>
-      </c>
-      <c r="R58" t="s">
-        <v>30</v>
-      </c>
-      <c r="S58" t="s">
-        <v>30</v>
+        <v>157</v>
+      </c>
+      <c r="Q58">
+        <v>27999000</v>
+      </c>
+      <c r="R58">
+        <v>300</v>
+      </c>
+      <c r="S58" s="2">
+        <v>41791</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>30800</v>
+      </c>
+      <c r="D59">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="E59">
+        <v>40.11</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K59" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O59" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>30</v>
-      </c>
-      <c r="R59" t="s">
-        <v>30</v>
-      </c>
-      <c r="S59" t="s">
-        <v>30</v>
+        <v>158</v>
+      </c>
+      <c r="Q59">
+        <v>14455120</v>
+      </c>
+      <c r="R59">
+        <v>154</v>
+      </c>
+      <c r="S59" s="2">
+        <v>38139</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>72000</v>
+      </c>
+      <c r="D60">
+        <v>137.35</v>
+      </c>
+      <c r="E60">
+        <v>85.78</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K60" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O60" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>30</v>
-      </c>
-      <c r="R60" t="s">
-        <v>30</v>
-      </c>
-      <c r="S60" t="s">
-        <v>30</v>
+        <v>159</v>
+      </c>
+      <c r="Q60">
+        <v>33619800</v>
+      </c>
+      <c r="R60">
+        <v>648</v>
+      </c>
+      <c r="S60" s="2">
+        <v>38687</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>24000</v>
+      </c>
+      <c r="D61">
+        <v>53.55</v>
+      </c>
+      <c r="E61">
+        <v>34.01</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>13</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L61" t="s">
-        <v>30</v>
-      </c>
-      <c r="M61" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="L61">
+        <v>100000</v>
+      </c>
+      <c r="M61">
+        <v>16000</v>
       </c>
       <c r="N61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O61" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="P61" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R61" t="s">
-        <v>30</v>
-      </c>
-      <c r="S61" t="s">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="Q61">
+        <v>11287800</v>
+      </c>
+      <c r="R61">
+        <v>120</v>
+      </c>
+      <c r="S61" s="2">
+        <v>36465</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>31000</v>
+      </c>
+      <c r="D62">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="E62">
+        <v>40.11</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>8</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K62" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L62" t="s">
-        <v>30</v>
-      </c>
-      <c r="M62" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M62">
+        <v>24000</v>
       </c>
       <c r="N62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O62" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="P62" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>30</v>
-      </c>
-      <c r="R62" t="s">
-        <v>30</v>
-      </c>
-      <c r="S62" t="s">
-        <v>30</v>
+        <v>147</v>
+      </c>
+      <c r="Q62">
+        <v>14545900</v>
+      </c>
+      <c r="R62">
+        <v>155</v>
+      </c>
+      <c r="S62" s="2">
+        <v>38139</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>21000</v>
+      </c>
+      <c r="D63">
+        <v>43.18</v>
+      </c>
+      <c r="E63">
+        <v>23.29</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G63">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K63" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L63" t="s">
-        <v>30</v>
-      </c>
-      <c r="M63" t="s">
-        <v>30</v>
-      </c>
-      <c r="N63" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M63">
+        <v>1000</v>
+      </c>
+      <c r="N63">
+        <v>65</v>
       </c>
       <c r="O63" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="P63" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>30</v>
-      </c>
-      <c r="R63" t="s">
-        <v>30</v>
-      </c>
-      <c r="S63" t="s">
-        <v>30</v>
+        <v>161</v>
+      </c>
+      <c r="Q63">
+        <v>9897450</v>
+      </c>
+      <c r="R63">
+        <v>105</v>
+      </c>
+      <c r="S63" s="2">
+        <v>37895</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>20000</v>
+      </c>
+      <c r="D64">
+        <v>43.18</v>
+      </c>
+      <c r="E64">
+        <v>23.29</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" t="s">
-        <v>30</v>
-      </c>
-      <c r="I64" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K64" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L64" t="s">
-        <v>30</v>
-      </c>
-      <c r="M64" t="s">
-        <v>30</v>
-      </c>
-      <c r="N64" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M64">
+        <v>1000</v>
+      </c>
+      <c r="N64">
+        <v>60</v>
       </c>
       <c r="O64" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="P64" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>30</v>
-      </c>
-      <c r="R64" t="s">
-        <v>30</v>
-      </c>
-      <c r="S64" t="s">
-        <v>30</v>
+        <v>161</v>
+      </c>
+      <c r="Q64">
+        <v>9434000</v>
+      </c>
+      <c r="R64">
+        <v>100</v>
+      </c>
+      <c r="S64" s="2">
+        <v>37895</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>21500</v>
+      </c>
+      <c r="D65">
+        <v>67.33</v>
+      </c>
+      <c r="E65">
+        <v>33.21</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G65">
+        <v>18</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K65" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O65" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="P65" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>30</v>
-      </c>
-      <c r="R65" t="s">
-        <v>30</v>
-      </c>
-      <c r="S65" t="s">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="Q65">
+        <v>10129175</v>
+      </c>
+      <c r="R65">
+        <v>108</v>
+      </c>
+      <c r="S65" s="2">
+        <v>36647</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>28000</v>
+      </c>
+      <c r="D66">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="E66">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K66" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O66" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>30</v>
-      </c>
-      <c r="R66" t="s">
-        <v>30</v>
-      </c>
-      <c r="S66" t="s">
-        <v>30</v>
+        <v>163</v>
+      </c>
+      <c r="Q66">
+        <v>13154200</v>
+      </c>
+      <c r="R66">
+        <v>140</v>
+      </c>
+      <c r="S66" s="2">
+        <v>37803</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>30800</v>
+      </c>
+      <c r="D67">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="E67">
+        <v>40.11</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>8</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K67" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L67" t="s">
-        <v>30</v>
-      </c>
-      <c r="M67" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M67">
+        <v>24000</v>
       </c>
       <c r="N67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O67" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>30</v>
-      </c>
-      <c r="R67" t="s">
-        <v>30</v>
-      </c>
-      <c r="S67" t="s">
-        <v>30</v>
+        <v>163</v>
+      </c>
+      <c r="Q67">
+        <v>14455120</v>
+      </c>
+      <c r="R67">
+        <v>154</v>
+      </c>
+      <c r="S67" s="2">
+        <v>38139</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>32000</v>
+      </c>
+      <c r="D68">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="E68">
+        <v>35.69</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K68" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L68" t="s">
-        <v>30</v>
-      </c>
-      <c r="M68" t="s">
-        <v>30</v>
-      </c>
-      <c r="N68" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M68">
+        <v>1000</v>
+      </c>
+      <c r="N68">
+        <v>100</v>
       </c>
       <c r="O68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P68" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>30</v>
-      </c>
-      <c r="R68" t="s">
-        <v>30</v>
-      </c>
-      <c r="S68" t="s">
-        <v>30</v>
+        <v>164</v>
+      </c>
+      <c r="Q68">
+        <v>15009800</v>
+      </c>
+      <c r="R68">
+        <v>160</v>
+      </c>
+      <c r="S68" s="2">
+        <v>38139</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" t="s">
-        <v>30</v>
-      </c>
-      <c r="E69" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C69">
+        <v>22000</v>
+      </c>
+      <c r="D69">
+        <v>67.94</v>
+      </c>
+      <c r="E69">
+        <v>33.51</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69">
+        <v>18</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K69" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O69" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="P69" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>30</v>
-      </c>
-      <c r="R69" t="s">
-        <v>30</v>
-      </c>
-      <c r="S69" t="s">
-        <v>30</v>
+        <v>165</v>
+      </c>
+      <c r="Q69">
+        <v>10360900</v>
+      </c>
+      <c r="R69">
+        <v>110</v>
+      </c>
+      <c r="S69" s="2">
+        <v>36647</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>72000</v>
+      </c>
+      <c r="D70">
+        <v>85.03</v>
+      </c>
+      <c r="E70">
+        <v>50.06</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" t="s">
-        <v>30</v>
-      </c>
-      <c r="I70" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K70" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O70" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="P70" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>30</v>
-      </c>
-      <c r="R70" t="s">
-        <v>30</v>
-      </c>
-      <c r="S70" t="s">
-        <v>30</v>
+        <v>165</v>
+      </c>
+      <c r="Q70">
+        <v>33619800</v>
+      </c>
+      <c r="R70">
+        <v>360</v>
+      </c>
+      <c r="S70" s="2">
+        <v>37681</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" t="s">
-        <v>30</v>
-      </c>
-      <c r="I71" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>33000</v>
+      </c>
+      <c r="D71">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="E71">
+        <v>35.69</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>8</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K71" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O71" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="P71" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>30</v>
-      </c>
-      <c r="R71" t="s">
-        <v>30</v>
-      </c>
-      <c r="S71" t="s">
-        <v>30</v>
+        <v>166</v>
+      </c>
+      <c r="Q71">
+        <v>15473700</v>
+      </c>
+      <c r="R71">
+        <v>165</v>
+      </c>
+      <c r="S71" s="2">
+        <v>38139</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C72">
+        <v>16000</v>
+      </c>
+      <c r="D72">
+        <v>38.68</v>
+      </c>
+      <c r="E72">
+        <v>21.12</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K72" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L72" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M72">
+        <v>12000</v>
       </c>
       <c r="N72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O72" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>30</v>
-      </c>
-      <c r="R72" t="s">
-        <v>30</v>
-      </c>
-      <c r="S72" t="s">
-        <v>30</v>
+        <v>167</v>
+      </c>
+      <c r="Q72">
+        <v>7575400</v>
+      </c>
+      <c r="R72">
+        <v>80</v>
+      </c>
+      <c r="S72" s="2">
+        <v>32964</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1"/>
     <hyperlink ref="T3" r:id="rId2"/>
